--- a/example/lockCellTest.xlsx
+++ b/example/lockCellTest.xlsx
@@ -372,6 +372,6 @@
       <c r="C2" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="APbLOvbX6LUo1jIPk27p8+ZOguvnO4a4xm4m2IqJG1pr36zFKNnO6F+x9aMW08wnHWGDgVb3Iq2Q5Wtp+vy4AA==" saltValue="ZMnbG9v88Nksu5IjJV60QA==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="07hj7CsHqvhZMKGUDNC+p+vsNTavXZEdn7lKilN0JzIjC963bd+HlrsblRNTwXogqEsCcfEZyqoFWXUTXjgp9w==" saltValue="C5bmctfAWeixYALiAtirzQ==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
 </worksheet>
 </file>